--- a/실무_엑셀_예제_파일/Chapter07/07-006.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4599016B-A335-46FD-BEAB-B0EA803F2A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ECFCEE-0D7D-4198-B10A-7B8D379E192E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="20064" windowHeight="13536" xr2:uid="{792F985A-B1DF-478A-8439-F551B65A61B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{792F985A-B1DF-478A-8439-F551B65A61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="미니멀라이프" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">미니멀라이프!$B$4:$F$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -637,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,7 +638,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -656,22 +647,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,39 +973,39 @@
   <dimension ref="B1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L5" sqref="L5:L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="19.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.08203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.58203125" style="3" customWidth="1"/>
     <col min="11" max="12" width="11.5" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="3"/>
+    <col min="13" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="str">
+    <row r="1" spans="2:12" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="str">
         <f ca="1">"미니멀라이프 사원 목록 ("&amp;TEXT(TODAY(),"yyyy년 m월")&amp;")"</f>
-        <v>미니멀라이프 사원 목록 (2021년 8월)</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:12" s="2" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>미니멀라이프 사원 목록 (2025년 4월)</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:12" s="2" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1040,23 +1022,23 @@
         <v>139</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>132</v>
       </c>
@@ -1072,8 +1054,28 @@
       <c r="F5" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="3" t="str">
+        <f>LEFT(C5, 1)</f>
+        <v>이</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f>LEFT(D5, 8)&amp; "******"</f>
+        <v>010602-4******</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>RIGHT(B5,3)</f>
+        <v>476</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>MID(D5, 8, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f>IF(ISODD(K5), "남", "여")</f>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>114</v>
       </c>
@@ -1089,8 +1091,28 @@
       <c r="F6" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="3" t="str">
+        <f t="shared" ref="H6:H50" si="0">LEFT(C6, 1)</f>
+        <v>박</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" ref="I6:I50" si="1">LEFT(D6, 8)&amp; "******"</f>
+        <v>731207-1******</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" ref="J6:J50" si="2">RIGHT(B6,3)</f>
+        <v>996</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" ref="K6:K50" si="3">MID(D6, 8, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" ref="L6:L50" si="4">IF(ISODD(K6), "남", "여")</f>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>113</v>
       </c>
@@ -1106,8 +1128,28 @@
       <c r="F7" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>770514-1******</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>100</v>
       </c>
@@ -1123,8 +1165,28 @@
       <c r="F8" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>780301-2******</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>473</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>127</v>
       </c>
@@ -1140,8 +1202,28 @@
       <c r="F9" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>881009-1******</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>92</v>
       </c>
@@ -1157,8 +1239,28 @@
       <c r="F10" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>이</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>930831-2******</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>126</v>
       </c>
@@ -1174,8 +1276,28 @@
       <c r="F11" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>이</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>960828-1******</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>93</v>
       </c>
@@ -1191,8 +1313,28 @@
       <c r="F12" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>770605-2******</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>921</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>128</v>
       </c>
@@ -1208,8 +1350,28 @@
       <c r="F13" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>김</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>920925-1******</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>888</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>136</v>
       </c>
@@ -1225,8 +1387,28 @@
       <c r="F14" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>040916-3******</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>104</v>
       </c>
@@ -1242,8 +1424,28 @@
       <c r="F15" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>721117-2******</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>697</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>101</v>
       </c>
@@ -1259,8 +1461,28 @@
       <c r="F16" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840930-1******</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>125</v>
       </c>
@@ -1276,8 +1498,28 @@
       <c r="F17" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>871222-1******</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>829</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>105</v>
       </c>
@@ -1293,8 +1535,28 @@
       <c r="F18" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>960229-2******</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>131</v>
       </c>
@@ -1310,8 +1572,28 @@
       <c r="F19" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>021214-4******</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>106</v>
       </c>
@@ -1327,8 +1609,28 @@
       <c r="F20" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840114-1******</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>118</v>
       </c>
@@ -1344,8 +1646,28 @@
       <c r="F21" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840611-2******</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>953</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="3" t="s">
         <v>110</v>
       </c>
@@ -1361,8 +1683,28 @@
       <c r="F22" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>김</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>871230-2******</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
         <v>130</v>
       </c>
@@ -1378,8 +1720,28 @@
       <c r="F23" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>041208-4******</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="3" t="s">
         <v>109</v>
       </c>
@@ -1395,8 +1757,28 @@
       <c r="F24" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>770207-2******</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
         <v>120</v>
       </c>
@@ -1412,8 +1794,28 @@
       <c r="F25" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>이</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>790203-2******</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>559</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
@@ -1429,8 +1831,28 @@
       <c r="F26" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840522-2******</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
         <v>134</v>
       </c>
@@ -1446,8 +1868,28 @@
       <c r="F27" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>김</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>011125-4******</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
         <v>107</v>
       </c>
@@ -1463,8 +1905,28 @@
       <c r="F28" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>700810-1******</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>805</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="3" t="s">
         <v>102</v>
       </c>
@@ -1480,8 +1942,28 @@
       <c r="F29" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>이</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>711003-2******</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>967</v>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>96</v>
       </c>
@@ -1497,8 +1979,28 @@
       <c r="F30" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>771221-2******</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>756</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
@@ -1514,8 +2016,28 @@
       <c r="F31" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>김</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>840703-2******</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="3" t="s">
         <v>112</v>
       </c>
@@ -1531,8 +2053,28 @@
       <c r="F32" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>841107-1******</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="s">
         <v>124</v>
       </c>
@@ -1548,25 +2090,65 @@
       <c r="F33" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="6" t="s">
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>850412-1******</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>800306-1******</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="3" t="s">
         <v>111</v>
       </c>
@@ -1582,8 +2164,28 @@
       <c r="F35" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>860606-2******</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>573</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="3" t="s">
         <v>103</v>
       </c>
@@ -1599,8 +2201,28 @@
       <c r="F36" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>김</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>890707-1******</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>571</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="3" t="s">
         <v>133</v>
       </c>
@@ -1616,8 +2238,28 @@
       <c r="F37" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>제</v>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>020119-3******</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L37" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="3" t="s">
         <v>129</v>
       </c>
@@ -1633,8 +2275,28 @@
       <c r="F38" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>020724-3******</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>874</v>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L38" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="3" t="s">
         <v>137</v>
       </c>
@@ -1650,8 +2312,28 @@
       <c r="F39" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>김</v>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>040819-3******</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L39" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="3" t="s">
         <v>99</v>
       </c>
@@ -1667,8 +2349,28 @@
       <c r="F40" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>김</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>790726-2******</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="3" t="s">
         <v>98</v>
       </c>
@@ -1684,8 +2386,28 @@
       <c r="F41" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>841112-2******</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="K41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L41" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -1701,8 +2423,28 @@
       <c r="F42" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>941027-1******</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>701</v>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="3" t="s">
         <v>116</v>
       </c>
@@ -1718,8 +2460,28 @@
       <c r="F43" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>970304-2******</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>952</v>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L43" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="3" t="s">
         <v>135</v>
       </c>
@@ -1735,8 +2497,28 @@
       <c r="F44" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>박</v>
+      </c>
+      <c r="I44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>990808-4******</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>774</v>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="3" t="s">
         <v>97</v>
       </c>
@@ -1752,8 +2534,28 @@
       <c r="F45" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>이</v>
+      </c>
+      <c r="I45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>700804-1******</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+      <c r="K45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L45" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="3" t="s">
         <v>117</v>
       </c>
@@ -1769,8 +2571,28 @@
       <c r="F46" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>730910-1******</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>667</v>
+      </c>
+      <c r="K46" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="3" t="s">
         <v>108</v>
       </c>
@@ -1786,8 +2608,28 @@
       <c r="F47" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>770128-2******</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>389</v>
+      </c>
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
@@ -1803,8 +2645,28 @@
       <c r="F48" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>최</v>
+      </c>
+      <c r="I48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>800112-2******</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="3" t="s">
         <v>119</v>
       </c>
@@ -1820,8 +2682,28 @@
       <c r="F49" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>황</v>
+      </c>
+      <c r="I49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>821021-2******</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="K49" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="3" t="s">
         <v>123</v>
       </c>
@@ -1837,8 +2719,28 @@
       <c r="F50" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>정</v>
+      </c>
+      <c r="I50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>880531-1******</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>847</v>
+      </c>
+      <c r="K50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -1846,7 +2748,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
